--- a/public/data/profit/profit_table_ethiopia.xlsx
+++ b/public/data/profit/profit_table_ethiopia.xlsx
@@ -1398,13 +1398,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>-8.7</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>-8.57</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -1638,13 +1638,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>-12.15</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>-12.13</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -1659,7 +1659,7 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>-12.12</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -1872,37 +1872,37 @@
         <v>90</v>
       </c>
       <c r="D8" t="n">
-        <v>-56.01</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>-127.75</v>
+        <v>-98.53</v>
       </c>
       <c r="F8" t="n">
-        <v>-110.47</v>
+        <v>-87.19</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>-119.76</v>
+        <v>-134.45</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>-50.87</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>-94.05</v>
+        <v>-96.07</v>
       </c>
       <c r="M8" t="n">
-        <v>-75.34</v>
+        <v>-61.28</v>
       </c>
       <c r="N8" t="n">
-        <v>-122.97</v>
+        <v>-86.95</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -1911,34 +1911,34 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>-111.36</v>
+        <v>-56.94</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>-112.07</v>
+        <v>-90.25</v>
       </c>
       <c r="T8" t="n">
-        <v>-124.82</v>
+        <v>-91.84</v>
       </c>
       <c r="U8" t="n">
-        <v>-95.51</v>
+        <v>-82.49</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>-127.57</v>
+        <v>-100.21</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>-54.48</v>
+        <v>0</v>
       </c>
       <c r="Z8" t="n">
-        <v>-123.26</v>
+        <v>-85.61</v>
       </c>
     </row>
     <row r="9">
@@ -2115,10 +2115,10 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>-24.12</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-36.88</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -2142,7 +2142,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>-24.09</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -2151,7 +2151,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>-23.53</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -2160,7 +2160,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-24.1</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -2169,7 +2169,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>-24.14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -2178,7 +2178,7 @@
         <v>0</v>
       </c>
       <c r="Z11" t="n">
-        <v>-24.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -2198,13 +2198,13 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>-11.51</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>-7.75</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -2219,7 +2219,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>-7.69</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -2275,16 +2275,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>-126.43</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>-59.78</v>
+        <v>-84.12</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>-48.04</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -2296,13 +2296,13 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>-37.58</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>-44.29</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>-125.11</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -2311,7 +2311,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>-108.02</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -2320,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>-124.46</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -2329,7 +2329,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>-127.36</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="Z13" t="n">
-        <v>-123.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -2358,13 +2358,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>-51.1</v>
+        <v>-40.81</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>-79.43</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -2376,10 +2376,10 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>-60.44</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>-60.2</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -2438,13 +2438,13 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>-11.86</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>-11.7</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -2459,7 +2459,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>-11.68</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -2598,13 +2598,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>-54.42</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>-55.84</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2616,10 +2616,10 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>-56.19</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>-55.68</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -2835,16 +2835,16 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>-16.53</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>-21.29</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>-23.96</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2856,13 +2856,13 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>-20.19</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>-34.45</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>-16.45</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -2871,25 +2871,25 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>-15.51</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>-16.46</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-16.48</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>-16.38</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>-15.64</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2898,7 +2898,7 @@
         <v>0</v>
       </c>
       <c r="Z20" t="n">
-        <v>-16.35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2912,37 +2912,37 @@
         <v>104</v>
       </c>
       <c r="D21" t="n">
-        <v>-55.16</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>-127.19</v>
+        <v>-182.22</v>
       </c>
       <c r="F21" t="n">
-        <v>-69.28</v>
+        <v>-109.7</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>-84.41</v>
+        <v>-147.88</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>-55.59</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>-62.77</v>
+        <v>-87.35</v>
       </c>
       <c r="M21" t="n">
-        <v>-26.34</v>
+        <v>28.23</v>
       </c>
       <c r="N21" t="n">
-        <v>-121.89</v>
+        <v>-164.57</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -2951,34 +2951,34 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>-3.88</v>
+        <v>192.6</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>-121.71</v>
+        <v>-167.98</v>
       </c>
       <c r="T21" t="n">
-        <v>-121.67</v>
+        <v>-163.99</v>
       </c>
       <c r="U21" t="n">
-        <v>-111.95</v>
+        <v>-144.87</v>
       </c>
       <c r="V21" t="n">
-        <v>-19.08</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>-16.16</v>
+        <v>81.74</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>-49.16</v>
+        <v>0</v>
       </c>
       <c r="Z21" t="n">
-        <v>-115.76</v>
+        <v>-149.96</v>
       </c>
     </row>
     <row r="22">
@@ -2992,37 +2992,37 @@
         <v>105</v>
       </c>
       <c r="D22" t="n">
-        <v>-4.88</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>-91.08</v>
+        <v>-100.03</v>
       </c>
       <c r="F22" t="n">
-        <v>-87.45</v>
+        <v>-155.85</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>-99.99</v>
+        <v>-139.05</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>-4.91</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>-76.28</v>
+        <v>-117.54</v>
       </c>
       <c r="M22" t="n">
-        <v>-93.89</v>
+        <v>-180.49</v>
       </c>
       <c r="N22" t="n">
-        <v>-91.2</v>
+        <v>-102.8</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -3031,34 +3031,34 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>-45.09</v>
+        <v>134.42</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>-90.34</v>
+        <v>-100.79</v>
       </c>
       <c r="T22" t="n">
-        <v>-91.78</v>
+        <v>-104.94</v>
       </c>
       <c r="U22" t="n">
-        <v>-79.46</v>
+        <v>-45.52</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>-79.48</v>
+        <v>-46.15</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>-4.53</v>
+        <v>0</v>
       </c>
       <c r="Z22" t="n">
-        <v>-86.3</v>
+        <v>-72.89</v>
       </c>
     </row>
     <row r="23">
@@ -3152,19 +3152,19 @@
         <v>108</v>
       </c>
       <c r="D24" t="n">
-        <v>-132.22</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>-162.95</v>
+        <v>-161.08</v>
       </c>
       <c r="F24" t="n">
-        <v>-107.87</v>
+        <v>-146.8</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>-250.17</v>
+        <v>-159.11</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -3176,13 +3176,13 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>-40.53</v>
+        <v>31.52</v>
       </c>
       <c r="M24" t="n">
-        <v>256.98</v>
+        <v>474.93</v>
       </c>
       <c r="N24" t="n">
-        <v>-155.21</v>
+        <v>-133.18</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -3191,25 +3191,25 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>-51.55</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>-152.93</v>
+        <v>-132.23</v>
       </c>
       <c r="T24" t="n">
-        <v>-148.32</v>
+        <v>-110.29</v>
       </c>
       <c r="U24" t="n">
-        <v>-143.61</v>
+        <v>-101.32</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>-120.52</v>
+        <v>-43.68</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -3218,7 +3218,7 @@
         <v>0</v>
       </c>
       <c r="Z24" t="n">
-        <v>-156.22</v>
+        <v>-133.14</v>
       </c>
     </row>
     <row r="25">
@@ -3232,13 +3232,13 @@
         <v>109</v>
       </c>
       <c r="D25" t="n">
-        <v>-9.33</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>-102.18</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>-104.64</v>
+        <v>-124.68</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -3256,13 +3256,13 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>-90.26</v>
+        <v>-131.71</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>-100.66</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -3271,34 +3271,34 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>-87.14</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>-97.93</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>-97.62</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>-97.92</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>-61.36</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>-9.26</v>
+        <v>0</v>
       </c>
       <c r="Z25" t="n">
-        <v>-100.77</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -3478,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>-29.55</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>-30.54</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -3496,10 +3496,10 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>-27.47</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>-30.19</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -3552,37 +3552,37 @@
         <v>114</v>
       </c>
       <c r="D29" t="n">
-        <v>-38.39</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>-54.04</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>-68.99</v>
+        <v>-40.89</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>-67.2</v>
+        <v>-35.77</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>-36.57</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>-42.77</v>
+        <v>-14.06</v>
       </c>
       <c r="M29" t="n">
-        <v>-59.46</v>
+        <v>-9.86</v>
       </c>
       <c r="N29" t="n">
-        <v>-54.52</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -3591,34 +3591,34 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>-20.68</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>-51.89</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>-54.36</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>-59.48</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>-58.33</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>-35.06</v>
+        <v>0</v>
       </c>
       <c r="Z29" t="n">
-        <v>-51.64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>-24.74</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>-17.92</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -3656,10 +3656,10 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>-27.9</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>-19.39</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -3715,16 +3715,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>-37.19</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>-43.93</v>
+        <v>-41.63</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>-65.2</v>
+        <v>-50.61</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3736,13 +3736,13 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>-63.29</v>
+        <v>-162.11</v>
       </c>
       <c r="M31" t="n">
-        <v>-72.3</v>
+        <v>-69.69</v>
       </c>
       <c r="N31" t="n">
-        <v>-36.98</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -3751,16 +3751,16 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>-33.48</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>-57.96</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>-37.25</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3778,7 +3778,7 @@
         <v>0</v>
       </c>
       <c r="Z31" t="n">
-        <v>-36.94</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3792,19 +3792,19 @@
         <v>117</v>
       </c>
       <c r="D32" t="n">
-        <v>-51.75</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>-75.43</v>
+        <v>-107.38</v>
       </c>
       <c r="F32" t="n">
-        <v>-88.11</v>
+        <v>-76.47</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>-66.49</v>
+        <v>-102.39</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3816,13 +3816,13 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>-18.18</v>
+        <v>138.05</v>
       </c>
       <c r="M32" t="n">
-        <v>-45.15</v>
+        <v>3.03</v>
       </c>
       <c r="N32" t="n">
-        <v>-72.92</v>
+        <v>-90.17</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -3831,34 +3831,34 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>28.86</v>
+        <v>334.83</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>-25.15</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>-71.58</v>
+        <v>-84.84</v>
       </c>
       <c r="U32" t="n">
-        <v>-4.78</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>-1.99</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>35.65</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>-47.2</v>
+        <v>0</v>
       </c>
       <c r="Z32" t="n">
-        <v>-68.37</v>
+        <v>-79.85</v>
       </c>
     </row>
     <row r="33">
@@ -3872,37 +3872,37 @@
         <v>118</v>
       </c>
       <c r="D33" t="n">
-        <v>-235.69</v>
+        <v>-221.56</v>
       </c>
       <c r="E33" t="n">
-        <v>-372.76</v>
+        <v>-399.77</v>
       </c>
       <c r="F33" t="n">
-        <v>-267.27</v>
+        <v>-274.12</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>-256.91</v>
+        <v>-349.58</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>-154.54</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>-159.69</v>
+        <v>-385.78</v>
       </c>
       <c r="M33" t="n">
-        <v>-197.75</v>
+        <v>-260.76</v>
       </c>
       <c r="N33" t="n">
-        <v>-360.96</v>
+        <v>-377.53</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -3911,34 +3911,34 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>101.2</v>
+        <v>523.65</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>-297.64</v>
+        <v>-351.18</v>
       </c>
       <c r="T33" t="n">
-        <v>-365.01</v>
+        <v>-385.39</v>
       </c>
       <c r="U33" t="n">
-        <v>-236.05</v>
+        <v>-282.71</v>
       </c>
       <c r="V33" t="n">
-        <v>-77</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>-168.57</v>
+        <v>-178.23</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>-206.26</v>
+        <v>-102.34</v>
       </c>
       <c r="Z33" t="n">
-        <v>-347.83</v>
+        <v>-350.64</v>
       </c>
     </row>
     <row r="34">
@@ -3952,37 +3952,37 @@
         <v>119</v>
       </c>
       <c r="D34" t="n">
-        <v>-217.29</v>
+        <v>-167.7</v>
       </c>
       <c r="E34" t="n">
-        <v>-246.2</v>
+        <v>-229.8</v>
       </c>
       <c r="F34" t="n">
-        <v>-41.52</v>
+        <v>34.63</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>6.71</v>
+        <v>85.7</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>-161.03</v>
+        <v>-140.83</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>190.05</v>
+        <v>315.86</v>
       </c>
       <c r="M34" t="n">
-        <v>803.26</v>
+        <v>933.56</v>
       </c>
       <c r="N34" t="n">
-        <v>-204.16</v>
+        <v>-153.27</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -3991,34 +3991,34 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>56.29</v>
+        <v>302.22</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>-207.1</v>
+        <v>-172.62</v>
       </c>
       <c r="T34" t="n">
-        <v>-195.45</v>
+        <v>-136.75</v>
       </c>
       <c r="U34" t="n">
-        <v>-126.06</v>
+        <v>-26.43</v>
       </c>
       <c r="V34" t="n">
-        <v>-100.34</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>49.62</v>
+        <v>330.41</v>
       </c>
       <c r="X34" t="n">
-        <v>-134.09</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>-148.92</v>
+        <v>-2.09</v>
       </c>
       <c r="Z34" t="n">
-        <v>-202.01</v>
+        <v>-145.91</v>
       </c>
     </row>
     <row r="35">
@@ -4032,37 +4032,37 @@
         <v>120</v>
       </c>
       <c r="D35" t="n">
-        <v>-222.47</v>
+        <v>-165.72</v>
       </c>
       <c r="E35" t="n">
-        <v>-347.8</v>
+        <v>-261.73</v>
       </c>
       <c r="F35" t="n">
-        <v>-173.1</v>
+        <v>-89.42</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>-189.51</v>
+        <v>-109.21</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>-214.21</v>
+        <v>-187.51</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>171.86</v>
+        <v>307.53</v>
       </c>
       <c r="M35" t="n">
-        <v>-180.23</v>
+        <v>-97.84</v>
       </c>
       <c r="N35" t="n">
-        <v>-297.37</v>
+        <v>-192.83</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -4071,34 +4071,34 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>781.19</v>
+        <v>1292.85</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>-284.02</v>
+        <v>-217.18</v>
       </c>
       <c r="T35" t="n">
-        <v>-320.74</v>
+        <v>-224.56</v>
       </c>
       <c r="U35" t="n">
-        <v>-256.87</v>
+        <v>-180.72</v>
       </c>
       <c r="V35" t="n">
-        <v>-152.58</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>-224.94</v>
+        <v>-138.28</v>
       </c>
       <c r="X35" t="n">
-        <v>-126.75</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>-164.05</v>
+        <v>4.01</v>
       </c>
       <c r="Z35" t="n">
-        <v>-302.13</v>
+        <v>-199.08</v>
       </c>
     </row>
     <row r="36">
@@ -4112,37 +4112,37 @@
         <v>121</v>
       </c>
       <c r="D36" t="n">
-        <v>-115.05</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>-160.4</v>
+        <v>-190.09</v>
       </c>
       <c r="F36" t="n">
-        <v>-133.64</v>
+        <v>-158.05</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>-224</v>
+        <v>-226.23</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>-93.59</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>-132.35</v>
+        <v>-163.43</v>
       </c>
       <c r="M36" t="n">
-        <v>-113.2</v>
+        <v>-60.94</v>
       </c>
       <c r="N36" t="n">
-        <v>-152.88</v>
+        <v>-171.22</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -4151,34 +4151,34 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>-47.61</v>
+        <v>103.75</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>-159.51</v>
+        <v>-191.49</v>
       </c>
       <c r="T36" t="n">
-        <v>-150.43</v>
+        <v>-161.62</v>
       </c>
       <c r="U36" t="n">
-        <v>-153.91</v>
+        <v>-180.59</v>
       </c>
       <c r="V36" t="n">
-        <v>-83.3</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>-89.58</v>
+        <v>-51.67</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>-106.24</v>
+        <v>0</v>
       </c>
       <c r="Z36" t="n">
-        <v>-145.67</v>
+        <v>-153.48</v>
       </c>
     </row>
     <row r="37">
@@ -4192,19 +4192,19 @@
         <v>122</v>
       </c>
       <c r="D37" t="n">
-        <v>-26.03</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>-44.34</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>-58.35</v>
+        <v>-28.14</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>-31</v>
+        <v>-10.42</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -4216,13 +4216,13 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>-23.81</v>
+        <v>-4.38</v>
       </c>
       <c r="N37" t="n">
-        <v>-45.85</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -4231,34 +4231,34 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>-11.16</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>-5.15</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>-45.6</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>-4.78</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>-2.96</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>-25.21</v>
+        <v>0</v>
       </c>
       <c r="Z37" t="n">
-        <v>-42.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -4278,13 +4278,13 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>-22.29</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>-22.39</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -4296,10 +4296,10 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>-22.07</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>-22.37</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -4352,37 +4352,37 @@
         <v>124</v>
       </c>
       <c r="D39" t="n">
-        <v>-154.42</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>-151.95</v>
+        <v>-225.13</v>
       </c>
       <c r="F39" t="n">
-        <v>-97.55</v>
+        <v>-61.94</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>-122.24</v>
+        <v>-89</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>-169.67</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>-45.78</v>
+        <v>29.49</v>
       </c>
       <c r="M39" t="n">
-        <v>-123.16</v>
+        <v>-87.34</v>
       </c>
       <c r="N39" t="n">
-        <v>-140.58</v>
+        <v>-180.76</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -4391,34 +4391,34 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>-23.58</v>
+        <v>440.24</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>-140.25</v>
+        <v>-184.45</v>
       </c>
       <c r="T39" t="n">
-        <v>-144.42</v>
+        <v>-195.35</v>
       </c>
       <c r="U39" t="n">
-        <v>-139.97</v>
+        <v>-203.22</v>
       </c>
       <c r="V39" t="n">
-        <v>-215.04</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>-141.71</v>
+        <v>-295.29</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>-116.72</v>
+        <v>0</v>
       </c>
       <c r="Z39" t="n">
-        <v>-144.39</v>
+        <v>-193.92</v>
       </c>
     </row>
     <row r="40">
@@ -4432,37 +4432,37 @@
         <v>125</v>
       </c>
       <c r="D40" t="n">
-        <v>-145.37</v>
+        <v>-120.57</v>
       </c>
       <c r="E40" t="n">
-        <v>-229.23</v>
+        <v>-206.58</v>
       </c>
       <c r="F40" t="n">
-        <v>-79.02</v>
+        <v>-33.41</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>-6.39</v>
+        <v>62.74</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>-148.41</v>
+        <v>-136.18</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>-73.67</v>
+        <v>-26</v>
       </c>
       <c r="M40" t="n">
-        <v>672.36</v>
+        <v>814.96</v>
       </c>
       <c r="N40" t="n">
-        <v>-189.6</v>
+        <v>-139.4</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -4471,34 +4471,34 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>188.23</v>
+        <v>479</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>-218.63</v>
+        <v>-190.76</v>
       </c>
       <c r="T40" t="n">
-        <v>-193.86</v>
+        <v>-146.51</v>
       </c>
       <c r="U40" t="n">
-        <v>-175.28</v>
+        <v>-119.52</v>
       </c>
       <c r="V40" t="n">
-        <v>-82.88</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>104.09</v>
+        <v>318.65</v>
       </c>
       <c r="X40" t="n">
-        <v>-103.98</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>-117.86</v>
+        <v>-40.29</v>
       </c>
       <c r="Z40" t="n">
-        <v>-171.3</v>
+        <v>-109.2</v>
       </c>
     </row>
     <row r="41">
@@ -4672,37 +4672,37 @@
         <v>128</v>
       </c>
       <c r="D43" t="n">
-        <v>-260.73</v>
+        <v>-249.18</v>
       </c>
       <c r="E43" t="n">
-        <v>-347.59</v>
+        <v>-377.14</v>
       </c>
       <c r="F43" t="n">
-        <v>-13.74</v>
+        <v>62.96</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>-81.1</v>
+        <v>-25.54</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>-211.28</v>
+        <v>-269.27</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>-192.22</v>
+        <v>-203.14</v>
       </c>
       <c r="M43" t="n">
-        <v>59.61</v>
+        <v>156.17</v>
       </c>
       <c r="N43" t="n">
-        <v>-293.94</v>
+        <v>-283.18</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -4711,34 +4711,34 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>445.66</v>
+        <v>1005.7</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>-316.82</v>
+        <v>-334.94</v>
       </c>
       <c r="T43" t="n">
-        <v>-301.42</v>
+        <v>-296.12</v>
       </c>
       <c r="U43" t="n">
-        <v>-187.41</v>
+        <v>-115.48</v>
       </c>
       <c r="V43" t="n">
-        <v>-195.08</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>-65.78</v>
+        <v>94.38</v>
       </c>
       <c r="X43" t="n">
-        <v>-65.37</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>-178.02</v>
+        <v>-44.29</v>
       </c>
       <c r="Z43" t="n">
-        <v>-307.54</v>
+        <v>-307.24</v>
       </c>
     </row>
     <row r="44">
@@ -4758,13 +4758,13 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>-8.9</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>-9.96</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -5558,13 +5558,13 @@
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>-8.53</v>
+        <v>0</v>
       </c>
       <c r="G54" t="n">
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>-8.57</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -5579,7 +5579,7 @@
         <v>0</v>
       </c>
       <c r="M54" t="n">
-        <v>-7.71</v>
+        <v>0</v>
       </c>
       <c r="N54" t="n">
         <v>0</v>
@@ -5638,13 +5638,13 @@
         <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>-31.28</v>
+        <v>0</v>
       </c>
       <c r="G55" t="n">
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>-20.16</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -5659,7 +5659,7 @@
         <v>0</v>
       </c>
       <c r="M55" t="n">
-        <v>-23.92</v>
+        <v>0</v>
       </c>
       <c r="N55" t="n">
         <v>0</v>
@@ -5715,16 +5715,16 @@
         <v>0</v>
       </c>
       <c r="E56" t="n">
-        <v>-3.97</v>
+        <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>-45.26</v>
+        <v>-14.85</v>
       </c>
       <c r="G56" t="n">
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>-44.88</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -5739,10 +5739,10 @@
         <v>0</v>
       </c>
       <c r="M56" t="n">
-        <v>-42.39</v>
+        <v>0</v>
       </c>
       <c r="N56" t="n">
-        <v>-3.97</v>
+        <v>0</v>
       </c>
       <c r="O56" t="n">
         <v>0</v>
@@ -5751,7 +5751,7 @@
         <v>0</v>
       </c>
       <c r="Q56" t="n">
-        <v>-3.91</v>
+        <v>0</v>
       </c>
       <c r="R56" t="n">
         <v>0</v>
@@ -5760,16 +5760,16 @@
         <v>0</v>
       </c>
       <c r="T56" t="n">
-        <v>-3.97</v>
+        <v>0</v>
       </c>
       <c r="U56" t="n">
-        <v>-3.95</v>
+        <v>0</v>
       </c>
       <c r="V56" t="n">
         <v>0</v>
       </c>
       <c r="W56" t="n">
-        <v>-3.93</v>
+        <v>0</v>
       </c>
       <c r="X56" t="n">
         <v>0</v>
@@ -5778,7 +5778,7 @@
         <v>0</v>
       </c>
       <c r="Z56" t="n">
-        <v>-3.94</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -5795,16 +5795,16 @@
         <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>-57.13</v>
+        <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>-118.2</v>
+        <v>-83.14</v>
       </c>
       <c r="G57" t="n">
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>-182.66</v>
+        <v>-94.98</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -5816,13 +5816,13 @@
         <v>0</v>
       </c>
       <c r="L57" t="n">
-        <v>-127.35</v>
+        <v>-102.53</v>
       </c>
       <c r="M57" t="n">
-        <v>-166.18</v>
+        <v>-75.07</v>
       </c>
       <c r="N57" t="n">
-        <v>-57.17</v>
+        <v>0</v>
       </c>
       <c r="O57" t="n">
         <v>0</v>
@@ -5831,16 +5831,16 @@
         <v>0</v>
       </c>
       <c r="Q57" t="n">
-        <v>-47.38</v>
+        <v>0</v>
       </c>
       <c r="R57" t="n">
         <v>0</v>
       </c>
       <c r="S57" t="n">
-        <v>-55.41</v>
+        <v>0</v>
       </c>
       <c r="T57" t="n">
-        <v>-56.89</v>
+        <v>0</v>
       </c>
       <c r="U57" t="n">
         <v>0</v>
@@ -5849,7 +5849,7 @@
         <v>0</v>
       </c>
       <c r="W57" t="n">
-        <v>-52.27</v>
+        <v>0</v>
       </c>
       <c r="X57" t="n">
         <v>0</v>
@@ -5858,7 +5858,7 @@
         <v>0</v>
       </c>
       <c r="Z57" t="n">
-        <v>-56.36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -5872,37 +5872,37 @@
         <v>144</v>
       </c>
       <c r="D58" t="n">
-        <v>-86.2</v>
+        <v>0</v>
       </c>
       <c r="E58" t="n">
-        <v>-99.56</v>
+        <v>-143.76</v>
       </c>
       <c r="F58" t="n">
-        <v>-109.43</v>
+        <v>-122.48</v>
       </c>
       <c r="G58" t="n">
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>-231.24</v>
+        <v>-95.42</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>-87.89</v>
+        <v>0</v>
       </c>
       <c r="K58" t="n">
         <v>0</v>
       </c>
       <c r="L58" t="n">
-        <v>-122.07</v>
+        <v>-129.34</v>
       </c>
       <c r="M58" t="n">
-        <v>-59.29</v>
+        <v>42.98</v>
       </c>
       <c r="N58" t="n">
-        <v>-98.24</v>
+        <v>-135.56</v>
       </c>
       <c r="O58" t="n">
         <v>0</v>
@@ -5911,34 +5911,34 @@
         <v>0</v>
       </c>
       <c r="Q58" t="n">
-        <v>-72.24</v>
+        <v>0.58</v>
       </c>
       <c r="R58" t="n">
         <v>0</v>
       </c>
       <c r="S58" t="n">
-        <v>-84.21</v>
+        <v>-118.13</v>
       </c>
       <c r="T58" t="n">
-        <v>-97.96</v>
+        <v>-135.43</v>
       </c>
       <c r="U58" t="n">
-        <v>-83.73</v>
+        <v>-109.39</v>
       </c>
       <c r="V58" t="n">
         <v>0</v>
       </c>
       <c r="W58" t="n">
-        <v>-88.81</v>
+        <v>-141.87</v>
       </c>
       <c r="X58" t="n">
         <v>0</v>
       </c>
       <c r="Y58" t="n">
-        <v>-82.05</v>
+        <v>0</v>
       </c>
       <c r="Z58" t="n">
-        <v>-94.8</v>
+        <v>-116.61</v>
       </c>
     </row>
     <row r="59">
@@ -5958,13 +5958,13 @@
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>-31.33</v>
+        <v>0</v>
       </c>
       <c r="G59" t="n">
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>-31.69</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -5979,7 +5979,7 @@
         <v>0</v>
       </c>
       <c r="M59" t="n">
-        <v>-31.11</v>
+        <v>0</v>
       </c>
       <c r="N59" t="n">
         <v>0</v>
@@ -6032,19 +6032,19 @@
         <v>146</v>
       </c>
       <c r="D60" t="n">
-        <v>-26.27</v>
+        <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>-81.54</v>
+        <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>-112.81</v>
+        <v>-90.66</v>
       </c>
       <c r="G60" t="n">
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>-148.33</v>
+        <v>-173.51</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -6056,13 +6056,13 @@
         <v>0</v>
       </c>
       <c r="L60" t="n">
-        <v>-117.03</v>
+        <v>-147.34</v>
       </c>
       <c r="M60" t="n">
-        <v>-128.92</v>
+        <v>-126.56</v>
       </c>
       <c r="N60" t="n">
-        <v>-80.17</v>
+        <v>0</v>
       </c>
       <c r="O60" t="n">
         <v>0</v>
@@ -6071,34 +6071,34 @@
         <v>0</v>
       </c>
       <c r="Q60" t="n">
-        <v>-60.85</v>
+        <v>0</v>
       </c>
       <c r="R60" t="n">
         <v>0</v>
       </c>
       <c r="S60" t="n">
-        <v>-19.39</v>
+        <v>0</v>
       </c>
       <c r="T60" t="n">
-        <v>-80.41</v>
+        <v>0</v>
       </c>
       <c r="U60" t="n">
-        <v>-76.13</v>
+        <v>0</v>
       </c>
       <c r="V60" t="n">
         <v>0</v>
       </c>
       <c r="W60" t="n">
-        <v>-53.45</v>
+        <v>0</v>
       </c>
       <c r="X60" t="n">
         <v>0</v>
       </c>
       <c r="Y60" t="n">
-        <v>-25.7</v>
+        <v>0</v>
       </c>
       <c r="Z60" t="n">
-        <v>-79.12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -6115,16 +6115,16 @@
         <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>-91.4</v>
+        <v>-92.36</v>
       </c>
       <c r="F61" t="n">
-        <v>-142.28</v>
+        <v>-172.83</v>
       </c>
       <c r="G61" t="n">
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>-86.13</v>
+        <v>-98.26</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -6136,13 +6136,13 @@
         <v>0</v>
       </c>
       <c r="L61" t="n">
-        <v>-87.29</v>
+        <v>-103.72</v>
       </c>
       <c r="M61" t="n">
-        <v>-134.76</v>
+        <v>-104.63</v>
       </c>
       <c r="N61" t="n">
-        <v>-92.54</v>
+        <v>-96.86</v>
       </c>
       <c r="O61" t="n">
         <v>0</v>
@@ -6151,25 +6151,25 @@
         <v>0</v>
       </c>
       <c r="Q61" t="n">
-        <v>-78.79</v>
+        <v>-37.99</v>
       </c>
       <c r="R61" t="n">
         <v>0</v>
       </c>
       <c r="S61" t="n">
-        <v>-88.44</v>
+        <v>-82.34</v>
       </c>
       <c r="T61" t="n">
-        <v>-92.28</v>
+        <v>-96.93</v>
       </c>
       <c r="U61" t="n">
-        <v>-39.2</v>
+        <v>0</v>
       </c>
       <c r="V61" t="n">
         <v>0</v>
       </c>
       <c r="W61" t="n">
-        <v>-43.27</v>
+        <v>0</v>
       </c>
       <c r="X61" t="n">
         <v>0</v>
@@ -6178,7 +6178,7 @@
         <v>0</v>
       </c>
       <c r="Z61" t="n">
-        <v>-90.1</v>
+        <v>-87.08</v>
       </c>
     </row>
     <row r="62">
@@ -6198,13 +6198,13 @@
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>-31.28</v>
+        <v>0</v>
       </c>
       <c r="G62" t="n">
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>-20.16</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -6219,7 +6219,7 @@
         <v>0</v>
       </c>
       <c r="M62" t="n">
-        <v>-23.92</v>
+        <v>0</v>
       </c>
       <c r="N62" t="n">
         <v>0</v>
@@ -6272,37 +6272,37 @@
         <v>149</v>
       </c>
       <c r="D63" t="n">
-        <v>-38.44</v>
+        <v>0</v>
       </c>
       <c r="E63" t="n">
-        <v>-94.44</v>
+        <v>-95.15</v>
       </c>
       <c r="F63" t="n">
-        <v>-153.88</v>
+        <v>-165.56</v>
       </c>
       <c r="G63" t="n">
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>-137.62</v>
+        <v>-154.66</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>-87.01</v>
+        <v>0</v>
       </c>
       <c r="K63" t="n">
         <v>0</v>
       </c>
       <c r="L63" t="n">
-        <v>-141.48</v>
+        <v>-186.94</v>
       </c>
       <c r="M63" t="n">
-        <v>-149.1</v>
+        <v>-165.82</v>
       </c>
       <c r="N63" t="n">
-        <v>-91.91</v>
+        <v>-95.16</v>
       </c>
       <c r="O63" t="n">
         <v>0</v>
@@ -6311,34 +6311,34 @@
         <v>0</v>
       </c>
       <c r="Q63" t="n">
-        <v>-58.78</v>
+        <v>100.48</v>
       </c>
       <c r="R63" t="n">
         <v>0</v>
       </c>
       <c r="S63" t="n">
-        <v>-77.32</v>
+        <v>-82.34</v>
       </c>
       <c r="T63" t="n">
-        <v>-92.22</v>
+        <v>-95.81</v>
       </c>
       <c r="U63" t="n">
-        <v>-36.27</v>
+        <v>0</v>
       </c>
       <c r="V63" t="n">
         <v>0</v>
       </c>
       <c r="W63" t="n">
-        <v>-56.02</v>
+        <v>0</v>
       </c>
       <c r="X63" t="n">
         <v>0</v>
       </c>
       <c r="Y63" t="n">
-        <v>-37.6</v>
+        <v>0</v>
       </c>
       <c r="Z63" t="n">
-        <v>-90.87</v>
+        <v>-74.3</v>
       </c>
     </row>
     <row r="64">
@@ -6358,13 +6358,13 @@
         <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>-45.83</v>
+        <v>-32.48</v>
       </c>
       <c r="G64" t="n">
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>-19.27</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -6376,10 +6376,10 @@
         <v>0</v>
       </c>
       <c r="L64" t="n">
-        <v>-43.07</v>
+        <v>-34.98</v>
       </c>
       <c r="M64" t="n">
-        <v>-24.44</v>
+        <v>0</v>
       </c>
       <c r="N64" t="n">
         <v>0</v>
@@ -6435,16 +6435,16 @@
         <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>-53.07</v>
+        <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>-52.92</v>
+        <v>-4.8</v>
       </c>
       <c r="G65" t="n">
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>-45.98</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -6456,13 +6456,13 @@
         <v>0</v>
       </c>
       <c r="L65" t="n">
-        <v>-43.49</v>
+        <v>0</v>
       </c>
       <c r="M65" t="n">
-        <v>-43.54</v>
+        <v>0</v>
       </c>
       <c r="N65" t="n">
-        <v>-53.27</v>
+        <v>0</v>
       </c>
       <c r="O65" t="n">
         <v>0</v>
@@ -6471,7 +6471,7 @@
         <v>0</v>
       </c>
       <c r="Q65" t="n">
-        <v>-47.93</v>
+        <v>0</v>
       </c>
       <c r="R65" t="n">
         <v>0</v>
@@ -6480,7 +6480,7 @@
         <v>0</v>
       </c>
       <c r="T65" t="n">
-        <v>-53.33</v>
+        <v>0</v>
       </c>
       <c r="U65" t="n">
         <v>0</v>
@@ -6498,7 +6498,7 @@
         <v>0</v>
       </c>
       <c r="Z65" t="n">
-        <v>-52.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -6515,16 +6515,16 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>-31.92</v>
+        <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>-64.3</v>
+        <v>-34.34</v>
       </c>
       <c r="G66" t="n">
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>-48.22</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -6536,13 +6536,13 @@
         <v>0</v>
       </c>
       <c r="L66" t="n">
-        <v>-128.1</v>
+        <v>0</v>
       </c>
       <c r="M66" t="n">
-        <v>-41.88</v>
+        <v>0</v>
       </c>
       <c r="N66" t="n">
-        <v>-31.87</v>
+        <v>0</v>
       </c>
       <c r="O66" t="n">
         <v>0</v>
@@ -6551,25 +6551,25 @@
         <v>0</v>
       </c>
       <c r="Q66" t="n">
-        <v>-29.19</v>
+        <v>0</v>
       </c>
       <c r="R66" t="n">
         <v>0</v>
       </c>
       <c r="S66" t="n">
-        <v>-30.11</v>
+        <v>0</v>
       </c>
       <c r="T66" t="n">
-        <v>-31.93</v>
+        <v>0</v>
       </c>
       <c r="U66" t="n">
-        <v>-30.34</v>
+        <v>0</v>
       </c>
       <c r="V66" t="n">
         <v>0</v>
       </c>
       <c r="W66" t="n">
-        <v>-30.81</v>
+        <v>0</v>
       </c>
       <c r="X66" t="n">
         <v>0</v>
@@ -6578,7 +6578,7 @@
         <v>0</v>
       </c>
       <c r="Z66" t="n">
-        <v>-31.58</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -6592,19 +6592,19 @@
         <v>153</v>
       </c>
       <c r="D67" t="n">
-        <v>-45.94</v>
+        <v>0</v>
       </c>
       <c r="E67" t="n">
-        <v>-144.27</v>
+        <v>-103.67</v>
       </c>
       <c r="F67" t="n">
-        <v>-203.81</v>
+        <v>-103.27</v>
       </c>
       <c r="G67" t="n">
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>-83.89</v>
+        <v>26.21</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -6616,13 +6616,13 @@
         <v>0</v>
       </c>
       <c r="L67" t="n">
-        <v>-211.5</v>
+        <v>-112.41</v>
       </c>
       <c r="M67" t="n">
-        <v>-221.15</v>
+        <v>-120.65</v>
       </c>
       <c r="N67" t="n">
-        <v>-136.33</v>
+        <v>-81.46</v>
       </c>
       <c r="O67" t="n">
         <v>0</v>
@@ -6631,34 +6631,34 @@
         <v>0</v>
       </c>
       <c r="Q67" t="n">
-        <v>7.05</v>
+        <v>347.08</v>
       </c>
       <c r="R67" t="n">
         <v>0</v>
       </c>
       <c r="S67" t="n">
-        <v>-117.77</v>
+        <v>-112.92</v>
       </c>
       <c r="T67" t="n">
-        <v>-138.53</v>
+        <v>-87.39</v>
       </c>
       <c r="U67" t="n">
-        <v>-103.13</v>
+        <v>-100.3</v>
       </c>
       <c r="V67" t="n">
         <v>0</v>
       </c>
       <c r="W67" t="n">
-        <v>-69.56</v>
+        <v>-15.94</v>
       </c>
       <c r="X67" t="n">
-        <v>-14.25</v>
+        <v>0</v>
       </c>
       <c r="Y67" t="n">
-        <v>-39.1</v>
+        <v>0</v>
       </c>
       <c r="Z67" t="n">
-        <v>-134.05</v>
+        <v>-73.68</v>
       </c>
     </row>
     <row r="68">
@@ -6675,16 +6675,16 @@
         <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>-18.44</v>
+        <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>-46.83</v>
+        <v>-48.18</v>
       </c>
       <c r="G68" t="n">
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>-37.28</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -6696,13 +6696,13 @@
         <v>0</v>
       </c>
       <c r="L68" t="n">
-        <v>-24.06</v>
+        <v>0</v>
       </c>
       <c r="M68" t="n">
-        <v>-29.83</v>
+        <v>0</v>
       </c>
       <c r="N68" t="n">
-        <v>-18.46</v>
+        <v>0</v>
       </c>
       <c r="O68" t="n">
         <v>0</v>
@@ -6711,7 +6711,7 @@
         <v>0</v>
       </c>
       <c r="Q68" t="n">
-        <v>-18.04</v>
+        <v>0</v>
       </c>
       <c r="R68" t="n">
         <v>0</v>
@@ -6720,7 +6720,7 @@
         <v>0</v>
       </c>
       <c r="T68" t="n">
-        <v>-18.49</v>
+        <v>0</v>
       </c>
       <c r="U68" t="n">
         <v>0</v>
@@ -6738,7 +6738,7 @@
         <v>0</v>
       </c>
       <c r="Z68" t="n">
-        <v>-18.33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -6832,19 +6832,19 @@
         <v>156</v>
       </c>
       <c r="D70" t="n">
-        <v>-23.27</v>
+        <v>0</v>
       </c>
       <c r="E70" t="n">
-        <v>-95.88</v>
+        <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>-160.41</v>
+        <v>-123.91</v>
       </c>
       <c r="G70" t="n">
         <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>-141.94</v>
+        <v>-85.97</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -6856,13 +6856,13 @@
         <v>0</v>
       </c>
       <c r="L70" t="n">
-        <v>-143.57</v>
+        <v>-99.63</v>
       </c>
       <c r="M70" t="n">
-        <v>-165.27</v>
+        <v>-127.36</v>
       </c>
       <c r="N70" t="n">
-        <v>-95</v>
+        <v>0</v>
       </c>
       <c r="O70" t="n">
         <v>0</v>
@@ -6871,34 +6871,34 @@
         <v>0</v>
       </c>
       <c r="Q70" t="n">
-        <v>-76.4</v>
+        <v>0</v>
       </c>
       <c r="R70" t="n">
         <v>0</v>
       </c>
       <c r="S70" t="n">
-        <v>-111.28</v>
+        <v>0</v>
       </c>
       <c r="T70" t="n">
-        <v>-95.37</v>
+        <v>0</v>
       </c>
       <c r="U70" t="n">
-        <v>-110.76</v>
+        <v>0</v>
       </c>
       <c r="V70" t="n">
         <v>0</v>
       </c>
       <c r="W70" t="n">
-        <v>-82.18</v>
+        <v>0</v>
       </c>
       <c r="X70" t="n">
         <v>0</v>
       </c>
       <c r="Y70" t="n">
-        <v>-22.86</v>
+        <v>0</v>
       </c>
       <c r="Z70" t="n">
-        <v>-94.79</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -6912,19 +6912,19 @@
         <v>157</v>
       </c>
       <c r="D71" t="n">
-        <v>-124.74</v>
+        <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>-217.47</v>
+        <v>-150.56</v>
       </c>
       <c r="F71" t="n">
-        <v>-186.18</v>
+        <v>-126.58</v>
       </c>
       <c r="G71" t="n">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>-60.37</v>
+        <v>44.71</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -6936,13 +6936,13 @@
         <v>0</v>
       </c>
       <c r="L71" t="n">
-        <v>-127.46</v>
+        <v>-94.92</v>
       </c>
       <c r="M71" t="n">
-        <v>115.9</v>
+        <v>271.84</v>
       </c>
       <c r="N71" t="n">
-        <v>-200.13</v>
+        <v>-117.68</v>
       </c>
       <c r="O71" t="n">
         <v>0</v>
@@ -6951,34 +6951,34 @@
         <v>0</v>
       </c>
       <c r="Q71" t="n">
-        <v>-110.19</v>
+        <v>35.4</v>
       </c>
       <c r="R71" t="n">
         <v>0</v>
       </c>
       <c r="S71" t="n">
-        <v>-171.01</v>
+        <v>-112.78</v>
       </c>
       <c r="T71" t="n">
-        <v>-191.75</v>
+        <v>-101.46</v>
       </c>
       <c r="U71" t="n">
-        <v>-113.9</v>
+        <v>-45.58</v>
       </c>
       <c r="V71" t="n">
-        <v>-27.8</v>
+        <v>0</v>
       </c>
       <c r="W71" t="n">
-        <v>-105.55</v>
+        <v>-8.12</v>
       </c>
       <c r="X71" t="n">
         <v>0</v>
       </c>
       <c r="Y71" t="n">
-        <v>-101.11</v>
+        <v>0</v>
       </c>
       <c r="Z71" t="n">
-        <v>-204.83</v>
+        <v>-127.33</v>
       </c>
     </row>
     <row r="72">
@@ -6992,19 +6992,19 @@
         <v>158</v>
       </c>
       <c r="D72" t="n">
-        <v>-12.7</v>
+        <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>-50.17</v>
+        <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>-71.14</v>
+        <v>-50.19</v>
       </c>
       <c r="G72" t="n">
         <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>-74.75</v>
+        <v>-118.35</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -7016,13 +7016,13 @@
         <v>0</v>
       </c>
       <c r="L72" t="n">
-        <v>-17.97</v>
+        <v>103.52</v>
       </c>
       <c r="M72" t="n">
-        <v>-41.25</v>
+        <v>3.03</v>
       </c>
       <c r="N72" t="n">
-        <v>-50.06</v>
+        <v>0</v>
       </c>
       <c r="O72" t="n">
         <v>0</v>
@@ -7031,16 +7031,16 @@
         <v>0</v>
       </c>
       <c r="Q72" t="n">
-        <v>-38.75</v>
+        <v>0</v>
       </c>
       <c r="R72" t="n">
         <v>0</v>
       </c>
       <c r="S72" t="n">
-        <v>-61.56</v>
+        <v>0</v>
       </c>
       <c r="T72" t="n">
-        <v>-49.56</v>
+        <v>0</v>
       </c>
       <c r="U72" t="n">
         <v>0</v>
@@ -7049,16 +7049,16 @@
         <v>0</v>
       </c>
       <c r="W72" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="X72" t="n">
         <v>0</v>
       </c>
       <c r="Y72" t="n">
-        <v>-12.13</v>
+        <v>0</v>
       </c>
       <c r="Z72" t="n">
-        <v>-48.63</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -7078,7 +7078,7 @@
         <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>-38.24</v>
+        <v>0</v>
       </c>
       <c r="G73" t="n">
         <v>0</v>
@@ -7096,7 +7096,7 @@
         <v>0</v>
       </c>
       <c r="L73" t="n">
-        <v>-43.87</v>
+        <v>0</v>
       </c>
       <c r="M73" t="n">
         <v>0</v>
@@ -7155,16 +7155,16 @@
         <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>-39.62</v>
+        <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>-52.42</v>
+        <v>-120.75</v>
       </c>
       <c r="G74" t="n">
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>-67.6</v>
+        <v>-139.49</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -7176,13 +7176,13 @@
         <v>0</v>
       </c>
       <c r="L74" t="n">
-        <v>-71.82</v>
+        <v>-158.3</v>
       </c>
       <c r="M74" t="n">
-        <v>-50.95</v>
+        <v>-85.64</v>
       </c>
       <c r="N74" t="n">
-        <v>-38.87</v>
+        <v>0</v>
       </c>
       <c r="O74" t="n">
         <v>0</v>
@@ -7191,25 +7191,25 @@
         <v>0</v>
       </c>
       <c r="Q74" t="n">
-        <v>-34.15</v>
+        <v>0</v>
       </c>
       <c r="R74" t="n">
         <v>0</v>
       </c>
       <c r="S74" t="n">
-        <v>-39.48</v>
+        <v>0</v>
       </c>
       <c r="T74" t="n">
-        <v>-39.11</v>
+        <v>0</v>
       </c>
       <c r="U74" t="n">
-        <v>-48.54</v>
+        <v>0</v>
       </c>
       <c r="V74" t="n">
         <v>0</v>
       </c>
       <c r="W74" t="n">
-        <v>-46.17</v>
+        <v>0</v>
       </c>
       <c r="X74" t="n">
         <v>0</v>
@@ -7218,7 +7218,7 @@
         <v>0</v>
       </c>
       <c r="Z74" t="n">
-        <v>-38.65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -7235,16 +7235,16 @@
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>-40.52</v>
+        <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>-100.56</v>
+        <v>-54.42</v>
       </c>
       <c r="G75" t="n">
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>-253.5</v>
+        <v>-138.51</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -7259,10 +7259,10 @@
         <v>0</v>
       </c>
       <c r="M75" t="n">
-        <v>-138.83</v>
+        <v>-142.77</v>
       </c>
       <c r="N75" t="n">
-        <v>-40.28</v>
+        <v>0</v>
       </c>
       <c r="O75" t="n">
         <v>0</v>
@@ -7271,7 +7271,7 @@
         <v>0</v>
       </c>
       <c r="Q75" t="n">
-        <v>-34.53</v>
+        <v>0</v>
       </c>
       <c r="R75" t="n">
         <v>0</v>
@@ -7280,7 +7280,7 @@
         <v>0</v>
       </c>
       <c r="T75" t="n">
-        <v>-40.33</v>
+        <v>0</v>
       </c>
       <c r="U75" t="n">
         <v>0</v>
@@ -7298,7 +7298,7 @@
         <v>0</v>
       </c>
       <c r="Z75" t="n">
-        <v>-40.21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
